--- a/data/manualDetection/cultivation/originalFiles/nadja_results_190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_6.xlsx
+++ b/data/manualDetection/cultivation/originalFiles/nadja_results_190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\git\gitHub\SI_lengthOfPrimaryCilia\data\manualDetection\cultivation\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B68ED-9A6E-4DF2-BB59-901C7912746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81663A13-B41B-491A-AD52-C550D7CA681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="4620" yWindow="4620" windowWidth="28800" windowHeight="15435" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>z_upper</t>
   </si>
   <si>
-    <t>horizontal_length_in_pixels</t>
+    <t>cilium_number</t>
   </si>
   <si>
-    <t>cilium_number</t>
+    <t>horizontal_length_in_pixels</t>
   </si>
 </sst>
 </file>
@@ -82,9 +82,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,24 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -429,81 +424,81 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>13.022</v>
+      <c r="B2">
+        <v>12.801</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>11.907</v>
+      <c r="B3">
+        <v>16.725999999999999</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>12.103999999999999</v>
+      <c r="B4">
+        <v>9.3209999999999997</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>19.791</v>
+      <c r="B5">
+        <v>12.6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>11.358000000000001</v>
+      <c r="B6">
+        <v>7.173</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>18.588000000000001</v>
+      <c r="B7">
+        <v>9.1590000000000007</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -513,36 +508,36 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>14.260999999999999</v>
+      <c r="B8">
+        <v>14.615</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>8.4960000000000004</v>
+      <c r="B9">
+        <v>10.625</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>12.349</v>
+      <c r="B10">
+        <v>13.62</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -555,25 +550,25 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>13.877000000000001</v>
+      <c r="B11">
+        <v>9.1790000000000003</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>14.82</v>
+      <c r="B12">
+        <v>12.706</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>18</v>
@@ -583,270 +578,101 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>22.227</v>
+      <c r="B13">
+        <v>12.222</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>14.959</v>
+      <c r="B14">
+        <v>12.089</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>12.67</v>
+      <c r="B15">
+        <v>7.5830000000000002</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>15.058999999999999</v>
+      <c r="B16">
+        <v>14.919</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>13.539</v>
+      <c r="B17">
+        <v>14.260999999999999</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>15.525</v>
+      <c r="B18">
+        <v>9.2469999999999999</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>20.945</v>
+      <c r="B19">
+        <v>9.3059999999999992</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19.062999999999999</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>13.923999999999999</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>15.347</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>10.25</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12.683999999999999</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>16.297000000000001</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>16.913</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7.0209999999999999</v>
-      </c>
-      <c r="C27">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>11.125</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>15.484</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>13.365</v>
-      </c>
-      <c r="C30">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>6.6660000000000004</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>